--- a/FinanseKS239473.xlsx
+++ b/FinanseKS239473.xlsx
@@ -8,15 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-16.CAMPUS.013\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299D4D5F-BD8D-4B4B-A62F-2BF9A5889429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8146DB4B-E2DA-410B-8390-012CE4B968AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operacje" sheetId="1" r:id="rId1"/>
     <sheet name="kategorie" sheetId="2" r:id="rId2"/>
-    <sheet name="styczen" sheetId="3" r:id="rId3"/>
+    <sheet name="styczeń" sheetId="3" r:id="rId3"/>
     <sheet name="Luty" sheetId="4" r:id="rId4"/>
+    <sheet name="marzec" sheetId="5" r:id="rId5"/>
+    <sheet name="kwiecien" sheetId="6" r:id="rId6"/>
+    <sheet name="maj" sheetId="7" r:id="rId7"/>
+    <sheet name="Czerwiec" sheetId="8" r:id="rId8"/>
+    <sheet name="Lipiec" sheetId="9" r:id="rId9"/>
+    <sheet name="Sierpień" sheetId="10" r:id="rId10"/>
+    <sheet name="Wrzesień" sheetId="11" r:id="rId11"/>
+    <sheet name="Październik" sheetId="12" r:id="rId12"/>
+    <sheet name="Listopad" sheetId="13" r:id="rId13"/>
+    <sheet name="Grudzień" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="44">
   <si>
     <t>Kwota</t>
   </si>
@@ -172,9 +182,6 @@
     <t xml:space="preserve">operacje </t>
   </si>
   <si>
-    <t xml:space="preserve">saldo koncowe </t>
-  </si>
-  <si>
     <t>Suma</t>
   </si>
   <si>
@@ -188,6 +195,12 @@
   </si>
   <si>
     <t>Transfer Suma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saldo początkowe </t>
+  </si>
+  <si>
+    <t>saldo końcowe</t>
   </si>
 </sst>
 </file>
@@ -269,12 +282,48 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="58">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -304,6 +353,120 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -318,10 +481,86 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -503,22 +742,142 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7D0310-CFAE-4EAF-B51C-C9B1FD76BDB0}" name="Operacje" displayName="Operacje" ref="A1:G208" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7D0310-CFAE-4EAF-B51C-C9B1FD76BDB0}" name="Operacje" displayName="Operacje" ref="A1:G208" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A1:G208" xr:uid="{CC7D0310-CFAE-4EAF-B51C-C9B1FD76BDB0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F66925A8-47D1-41C4-B7D6-57D378AD43D9}" name="Kwota" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{11183462-587F-4C50-A5B6-078BF6849846}" name="Bank" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{7242B078-35B4-4810-B5A8-2035E5AA03D9}" name="Produkt" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{8132C765-34B2-41B5-B6B8-728856978198}" name="Kategoria" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{431E4DA3-32E1-4329-8AF5-3E20FE2C66B3}" name="Typ" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{F66925A8-47D1-41C4-B7D6-57D378AD43D9}" name="Kwota" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{11183462-587F-4C50-A5B6-078BF6849846}" name="Bank" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{7242B078-35B4-4810-B5A8-2035E5AA03D9}" name="Produkt" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{8132C765-34B2-41B5-B6B8-728856978198}" name="Kategoria" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{431E4DA3-32E1-4329-8AF5-3E20FE2C66B3}" name="Typ" dataDxfId="51">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Operacje[[#This Row],[Kategoria]],Kategorie[Kategoria],Kategorie[Typ],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BF56E8D7-E44D-465E-8578-24875C6E4AA7}" name="Data" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{4536A06F-1909-4E43-B793-154CABF88C17}" name="Miesiąc" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{BF56E8D7-E44D-465E-8578-24875C6E4AA7}" name="Data" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{4536A06F-1909-4E43-B793-154CABF88C17}" name="Miesiąc" dataDxfId="49">
       <calculatedColumnFormula>IF(ISBLANK(Operacje[[#Headers],[Data]])," -",MONTH(Operacje[[#This Row],[Data]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{78123CB7-D719-4E30-B502-2823C613249C}" name="Lipiec" displayName="Lipiec" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6E50B1EA-BE79-4CC3-80F2-33B832B74C44}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{25395372-AEBD-40EF-B8E9-9495A0C25F9D}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{6B373F49-AA6A-49EB-8858-63EC4F2DBC5B}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{8885C736-0DCB-41BF-9E24-2B763227B957}" name="operacje " totalsRowFunction="sum" dataDxfId="23">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{18A5A389-B7BF-4119-A7EB-747CCE1AFC54}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="22">
+      <calculatedColumnFormula>Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{967C468F-9968-417E-B8DC-CD87C124CF43}" name="Sierpień" displayName="Sierpień" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9169F21A-2A09-427C-9D65-7BDCBCA11307}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{C84CBDC8-DEB2-47F1-9FD8-209E7EBBA6C2}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{8A7D82E0-3777-4943-B687-EE2C2134AA85}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1E19D05B-313A-4DF0-A605-2B2392E8E9E5}" name="operacje " totalsRowFunction="sum" dataDxfId="17">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Sierpień[[#This Row],[Bank]],Operacje[Produkt],Sierpień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{DD195E2F-EA1D-49FA-8A4A-B31C692021D5}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="16">
+      <calculatedColumnFormula>Sierpień[[#This Row],[Saldo poczatkowe ]]+Sierpień[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2370AD60-A5B6-4FA3-B20D-8F8C45C18510}" name="Wrzesień" displayName="Wrzesień" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DD05956E-26E9-4B5C-93FF-07478789302B}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{F92000C8-6AA9-402F-9AB4-B2621D39052F}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{AB5DB895-89CC-4B20-8546-5C354F6EEC13}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F4836F32-1C5D-4910-B037-68DF09317DB9}" name="operacje " totalsRowFunction="sum" dataDxfId="13">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Wrzesień[[#This Row],[Bank]],Operacje[Produkt],Wrzesień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1C6DDB09-2312-498F-863D-918ED595E50D}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="12">
+      <calculatedColumnFormula>Wrzesień[[#This Row],[Saldo poczatkowe ]]+Wrzesień[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0E7D389F-0C37-45BB-BB05-3560012F4A19}" name="Październik" displayName="Październik" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{445ED216-2D42-42C2-A12D-19E05101D2B3}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{88760959-5043-4BF5-9D5E-4589C2EDB899}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{1FDF8201-A0FF-42B1-B8CC-522383FC8E8B}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{70816532-36D2-4ACD-B520-26DE23F6A852}" name="operacje " totalsRowFunction="sum" dataDxfId="1">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Październik[[#This Row],[Bank]],Operacje[Produkt],Październik[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8E589831-C0A5-4469-9B2A-20939BB69D0F}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>Październik[[#This Row],[Saldo poczatkowe ]]+Październik[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9F5EFF9E-C0D0-48A1-A238-2A3BC1EFB823}" name="Listopad" displayName="Listopad" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1D5E50AA-A6A9-46DF-A2EC-5B9507901C65}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{37EED87B-3308-4F9A-87A1-28EA2DD54A21}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{E8CB40E4-22EC-4ACD-9FAE-4AE499E46232}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BFBF0F5B-E447-44C3-BCFE-8CC82CFDAE62}" name="operacje " totalsRowFunction="sum" dataDxfId="7">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Listopad[[#This Row],[Bank]],Operacje[Produkt],Listopad[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{783283EC-7BF2-4F49-8EF8-0636DA091A19}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="6">
+      <calculatedColumnFormula>Listopad[[#This Row],[Saldo poczatkowe ]]+Listopad[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EB0905A8-3C32-43A4-AB1E-6112736F3519}" name="Grudzień" displayName="Grudzień" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A169F0AB-DACB-45BE-83AA-5BD110CD2FFC}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{DA362E39-4A0B-41D0-945F-AA8E1385CA4F}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{F1EDFC23-01F9-427B-94CE-71BF04062B75}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{380E6F6F-CD60-442C-9A0F-8B1B59B61519}" name="operacje " totalsRowFunction="sum" dataDxfId="3">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Grudzień[[#This Row],[Bank]],Operacje[Produkt],Grudzień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{42311C66-1D98-472C-B4A5-76E513156EB3}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="2">
+      <calculatedColumnFormula>Grudzień[[#This Row],[Saldo poczatkowe ]]+Grudzień[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -548,17 +907,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}" name="styczen" displayName="styczen" ref="A1:E9" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}" name="styczeń" displayName="styczeń" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{44F6DF74-C9EC-4290-AA3D-94AAC50532A7}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{67ECEE32-81C0-4053-AC0B-193D836B8499}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{077AAC6E-A15D-4078-82B6-7C98D98B780A}" name="Saldo poczatkowe " totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{176ED41B-20C7-4613-93E1-5A7689C724A3}" name="operacje " totalsRowFunction="sum" dataDxfId="8">
-      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],styczen[[#This Row],[Bank]],Operacje[Produkt],styczen[[#This Row],[Produkt]],Operacje[Miesiąc],styczen!$B$11)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{077AAC6E-A15D-4078-82B6-7C98D98B780A}" name="saldo początkowe " totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{176ED41B-20C7-4613-93E1-5A7689C724A3}" name="operacje " totalsRowFunction="sum" dataDxfId="37">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń[[#This Row],[Bank]],Operacje[Produkt],styczeń[[#This Row],[Produkt]],Operacje[Miesiąc],styczeń!$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{61F42F39-9756-433C-A1A6-28A603920CAB}" name="saldo koncowe " totalsRowFunction="sum" dataDxfId="7">
-      <calculatedColumnFormula>styczen[[#This Row],[Saldo poczatkowe ]]+styczen[[#This Row],[operacje ]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{61F42F39-9756-433C-A1A6-28A603920CAB}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="36">
+      <calculatedColumnFormula>styczeń[[#This Row],[saldo początkowe ]]+styczeń[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -571,15 +930,97 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F577D5F3-A8E6-4E42-B516-159031619A3B}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{2BC63C6A-ADD8-4120-9C54-5200E300E86B}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{4B49800A-5E70-4F58-AEDE-895595E08037}" name="Saldo poczatkowe " totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{64EEBD97-B7CA-4724-ADD8-7CB6242B3E2D}" name="operacje " totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{4B49800A-5E70-4F58-AEDE-895595E08037}" name="Saldo poczatkowe " totalsRowFunction="sum" dataDxfId="38">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{64EEBD97-B7CA-4724-ADD8-7CB6242B3E2D}" name="operacje " totalsRowFunction="sum" dataDxfId="40">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Luty[[#This Row],[Bank]],Operacje[Produkt],Luty[[#This Row],[Produkt]],Operacje[Miesiąc],Luty!$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F735DFEF-E9D5-4CF5-89B5-DBBD612618C1}" name="saldo koncowe " totalsRowFunction="sum" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{F735DFEF-E9D5-4CF5-89B5-DBBD612618C1}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="39">
       <calculatedColumnFormula>Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9055C590-3AEC-4EAA-A21B-1B753672A0C9}" name="Marzec" displayName="Marzec" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8A73E5AA-E417-4A52-B7F1-CFE99FB2562B}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{300F18FE-46D6-4669-93EE-93D685B9D6FB}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{44A37303-19DB-4526-91EA-6DDF822212F0}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{EC7A334E-DFEA-4B66-9534-F78D348653BB}" name="operacje " totalsRowFunction="sum" dataDxfId="43">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Marzec[[#This Row],[Bank]],Operacje[Produkt],Marzec[[#This Row],[Produkt]],Operacje[Miesiąc],marzec!$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{ACB122F5-2829-4972-A585-078A29D6A3E1}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="42">
+      <calculatedColumnFormula>Marzec[[#This Row],[Saldo poczatkowe ]]+Marzec[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2C7C88AB-A7E0-48CA-9FCB-202D908879D3}" name="Kwiecień" displayName="Kwiecień" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{72207482-BBC5-4AD6-81B2-7CD132DAE05C}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{5F3D7FD8-B0F0-4794-B639-2D18F0A4B651}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{C0F5F843-B4BF-440D-B5E6-D13EB3FA92FA}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{87221E3D-1DCC-4334-99F0-295A99E5903E}" name="operacje " totalsRowFunction="sum" dataDxfId="21">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Kwiecień[[#This Row],[Bank]],Operacje[Produkt],Kwiecień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{2225963A-4444-4C36-A4C5-878BD15B747A}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="20">
+      <calculatedColumnFormula>Kwiecień[[#This Row],[Saldo poczatkowe ]]+Kwiecień[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DAECCF63-83E0-40C9-AD18-B0DA3FCB6EA9}" name="maj" displayName="maj" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4F6C763A-4810-4CAA-9E20-0632DC3F1AF3}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{4621478E-6716-483D-81C3-4C1634A3F5DF}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{399261C0-F6AD-4D85-9D77-83B2064EE123}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{862D51B4-A1DC-46D0-B698-FA874EA554AA}" name="operacje " totalsRowFunction="sum" dataDxfId="31">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],maj[[#This Row],[Bank]],Operacje[Produkt],maj[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4105CB5E-7939-4C54-B1FB-647AC4EA8DFE}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="30">
+      <calculatedColumnFormula>maj[[#This Row],[Saldo poczatkowe ]]+maj[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FCC5A945-0989-433F-9F39-D5BD35FD091C}" name="Czerwiec" displayName="Czerwiec" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{29BC0C48-4CF3-49D0-8233-C64A19F196C5}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{399CA472-1F89-424E-A88B-934DFEB2424F}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{CDDD0AF5-BFE3-48E8-879C-77EF122CECE6}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E8EB450C-BDF9-41A9-9B5D-8609EFA79CA2}" name="operacje " totalsRowFunction="sum" dataDxfId="27">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Czerwiec[[#This Row],[Bank]],Operacje[Produkt],Czerwiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{276A2850-CA44-4445-8A74-17BB12FED55D}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="26">
+      <calculatedColumnFormula>Czerwiec[[#This Row],[Saldo poczatkowe ]]+Czerwiec[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6141,6 +6582,2321 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA7F127-0B7C-4F3D-93D4-C46F508CE31C}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>535.5</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Sierpień[[#This Row],[Bank]],Operacje[Produkt],Sierpień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <f ca="1">Sierpień[[#This Row],[Saldo poczatkowe ]]+Sierpień[[#This Row],[operacje ]]</f>
+        <v>568.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>9882.44</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Sierpień[[#This Row],[Bank]],Operacje[Produkt],Sierpień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1475</v>
+      </c>
+      <c r="E3">
+        <f ca="1">Sierpień[[#This Row],[Saldo poczatkowe ]]+Sierpień[[#This Row],[operacje ]]</f>
+        <v>11357.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1020</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Sierpień[[#This Row],[Bank]],Operacje[Produkt],Sierpień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-1020</v>
+      </c>
+      <c r="E4">
+        <f ca="1">Sierpień[[#This Row],[Saldo poczatkowe ]]+Sierpień[[#This Row],[operacje ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>368.5</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Sierpień[[#This Row],[Bank]],Operacje[Produkt],Sierpień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <f ca="1">Sierpień[[#This Row],[Saldo poczatkowe ]]+Sierpień[[#This Row],[operacje ]]</f>
+        <v>568.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1386</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Sierpień[[#This Row],[Bank]],Operacje[Produkt],Sierpień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-300</v>
+      </c>
+      <c r="E6">
+        <f ca="1">Sierpień[[#This Row],[Saldo poczatkowe ]]+Sierpień[[#This Row],[operacje ]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Sierpień[[#This Row],[Bank]],Operacje[Produkt],Sierpień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f ca="1">Sierpień[[#This Row],[Saldo poczatkowe ]]+Sierpień[[#This Row],[operacje ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Sierpień[[#This Row],[Bank]],Operacje[Produkt],Sierpień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <f ca="1">Sierpień[[#This Row],[Saldo poczatkowe ]]+Sierpień[[#This Row],[operacje ]]</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Sierpień[[Saldo poczatkowe ]])</f>
+        <v>13778.45</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Sierpień[[operacje ]])</f>
+        <v>390.5</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Sierpień[saldo końcowe])</f>
+        <v>14168.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>sierpień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-749.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>-290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-3989.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>-1020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>-1020</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>390.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D4A8E8-D86D-4599-B994-3CB852AA89E2}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>568.5</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Wrzesień[[#This Row],[Bank]],Operacje[Produkt],Wrzesień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>82</v>
+      </c>
+      <c r="E2">
+        <f ca="1">Wrzesień[[#This Row],[Saldo poczatkowe ]]+Wrzesień[[#This Row],[operacje ]]</f>
+        <v>650.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>11357.44</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Wrzesień[[#This Row],[Bank]],Operacje[Produkt],Wrzesień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1689.5</v>
+      </c>
+      <c r="E3">
+        <f ca="1">Wrzesień[[#This Row],[Saldo poczatkowe ]]+Wrzesień[[#This Row],[operacje ]]</f>
+        <v>13046.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Wrzesień[[#This Row],[Bank]],Operacje[Produkt],Wrzesień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f ca="1">Wrzesień[[#This Row],[Saldo poczatkowe ]]+Wrzesień[[#This Row],[operacje ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>568.5</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Wrzesień[[#This Row],[Bank]],Operacje[Produkt],Wrzesień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-20</v>
+      </c>
+      <c r="E5">
+        <f ca="1">Wrzesień[[#This Row],[Saldo poczatkowe ]]+Wrzesień[[#This Row],[operacje ]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Wrzesień[[#This Row],[Bank]],Operacje[Produkt],Wrzesień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f ca="1">Wrzesień[[#This Row],[Saldo poczatkowe ]]+Wrzesień[[#This Row],[operacje ]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Wrzesień[[#This Row],[Bank]],Operacje[Produkt],Wrzesień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f ca="1">Wrzesień[[#This Row],[Saldo poczatkowe ]]+Wrzesień[[#This Row],[operacje ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Wrzesień[[#This Row],[Bank]],Operacje[Produkt],Wrzesień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f ca="1">Wrzesień[[#This Row],[Saldo poczatkowe ]]+Wrzesień[[#This Row],[operacje ]]</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Wrzesień[[Saldo poczatkowe ]])</f>
+        <v>14168.95</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Wrzesień[[operacje ]])</f>
+        <v>1751.5</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Wrzesień[saldo końcowe])</f>
+        <v>15920.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>wrzesień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-538.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-2748.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1751.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241B73E1-1ADE-4E30-9CC0-E3727C883C94}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>650.5</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Październik[[#This Row],[Bank]],Operacje[Produkt],Październik[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-20</v>
+      </c>
+      <c r="E2">
+        <f ca="1">Październik[[#This Row],[Saldo poczatkowe ]]+Październik[[#This Row],[operacje ]]</f>
+        <v>630.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>13046.94</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Październik[[#This Row],[Bank]],Operacje[Produkt],Październik[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1690</v>
+      </c>
+      <c r="E3">
+        <f ca="1">Październik[[#This Row],[Saldo poczatkowe ]]+Październik[[#This Row],[operacje ]]</f>
+        <v>14736.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Październik[[#This Row],[Bank]],Operacje[Produkt],Październik[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f ca="1">Październik[[#This Row],[Saldo poczatkowe ]]+Październik[[#This Row],[operacje ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Październik[[#This Row],[Bank]],Operacje[Produkt],Październik[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f ca="1">Październik[[#This Row],[Saldo poczatkowe ]]+Październik[[#This Row],[operacje ]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Październik[[#This Row],[Bank]],Operacje[Produkt],Październik[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f ca="1">Październik[[#This Row],[Saldo poczatkowe ]]+Październik[[#This Row],[operacje ]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Październik[[#This Row],[Bank]],Operacje[Produkt],Październik[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f ca="1">Październik[[#This Row],[Saldo poczatkowe ]]+Październik[[#This Row],[operacje ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Październik[[#This Row],[Bank]],Operacje[Produkt],Październik[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f ca="1">Październik[[#This Row],[Saldo poczatkowe ]]+Październik[[#This Row],[operacje ]]</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Październik[[Saldo poczatkowe ]])</f>
+        <v>15920.45</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Październik[[operacje ]])</f>
+        <v>1670</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Październik[saldo końcowe])</f>
+        <v>17590.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>październik</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-2830</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1670</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27BEE2F-22E3-4161-ACC6-1A4F51E8653D}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>630.5</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Listopad[[#This Row],[Bank]],Operacje[Produkt],Listopad[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <f ca="1">Listopad[[#This Row],[Saldo poczatkowe ]]+Listopad[[#This Row],[operacje ]]</f>
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>14736.94</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Listopad[[#This Row],[Bank]],Operacje[Produkt],Listopad[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>960</v>
+      </c>
+      <c r="E3">
+        <f ca="1">Listopad[[#This Row],[Saldo poczatkowe ]]+Listopad[[#This Row],[operacje ]]</f>
+        <v>15696.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Listopad[[#This Row],[Bank]],Operacje[Produkt],Listopad[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f ca="1">Listopad[[#This Row],[Saldo poczatkowe ]]+Listopad[[#This Row],[operacje ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Listopad[[#This Row],[Bank]],Operacje[Produkt],Listopad[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f ca="1">Listopad[[#This Row],[Saldo poczatkowe ]]+Listopad[[#This Row],[operacje ]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Listopad[[#This Row],[Bank]],Operacje[Produkt],Listopad[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f ca="1">Listopad[[#This Row],[Saldo poczatkowe ]]+Listopad[[#This Row],[operacje ]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Listopad[[#This Row],[Bank]],Operacje[Produkt],Listopad[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f ca="1">Listopad[[#This Row],[Saldo poczatkowe ]]+Listopad[[#This Row],[operacje ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Listopad[[#This Row],[Bank]],Operacje[Produkt],Listopad[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <f ca="1">Listopad[[#This Row],[Saldo poczatkowe ]]+Listopad[[#This Row],[operacje ]]</f>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Listopad[[Saldo poczatkowe ]])</f>
+        <v>17590.45</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Listopad[[operacje ]])</f>
+        <v>1400</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Listopad[saldo końcowe])</f>
+        <v>18990.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>listopad</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>-234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>-208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA89F52-39D0-44A5-B83D-EFB6AB5CAFB5}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Grudzień[[#This Row],[Bank]],Operacje[Produkt],Grudzień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f ca="1">Grudzień[[#This Row],[Saldo poczatkowe ]]+Grudzień[[#This Row],[operacje ]]</f>
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>15696.94</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Grudzień[[#This Row],[Bank]],Operacje[Produkt],Grudzień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1320</v>
+      </c>
+      <c r="E3">
+        <f ca="1">Grudzień[[#This Row],[Saldo poczatkowe ]]+Grudzień[[#This Row],[operacje ]]</f>
+        <v>17016.940000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Grudzień[[#This Row],[Bank]],Operacje[Produkt],Grudzień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f ca="1">Grudzień[[#This Row],[Saldo poczatkowe ]]+Grudzień[[#This Row],[operacje ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Grudzień[[#This Row],[Bank]],Operacje[Produkt],Grudzień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f ca="1">Grudzień[[#This Row],[Saldo poczatkowe ]]+Grudzień[[#This Row],[operacje ]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Grudzień[[#This Row],[Bank]],Operacje[Produkt],Grudzień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f ca="1">Grudzień[[#This Row],[Saldo poczatkowe ]]+Grudzień[[#This Row],[operacje ]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Grudzień[[#This Row],[Bank]],Operacje[Produkt],Grudzień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f ca="1">Grudzień[[#This Row],[Saldo poczatkowe ]]+Grudzień[[#This Row],[operacje ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>793</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Grudzień[[#This Row],[Bank]],Operacje[Produkt],Grudzień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>2600</v>
+      </c>
+      <c r="E8">
+        <f ca="1">Grudzień[[#This Row],[Saldo poczatkowe ]]+Grudzień[[#This Row],[operacje ]]</f>
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Grudzień[[Saldo poczatkowe ]])</f>
+        <v>18990.45</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Grudzień[[operacje ]])</f>
+        <v>3920</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Grudzień[saldo końcowe])</f>
+        <v>22910.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>grudzień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-4080</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>3920</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0498762-3F00-43D6-B375-8B5536F3B329}">
   <dimension ref="A1:I17"/>
@@ -6388,7 +9144,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6408,13 +9164,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6428,11 +9184,11 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczen[[#This Row],[Bank]],Operacje[Produkt],styczen[[#This Row],[Produkt]],Operacje[Miesiąc],styczen!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń[[#This Row],[Bank]],Operacje[Produkt],styczeń[[#This Row],[Produkt]],Operacje[Miesiąc],styczeń!$B$11)</f>
         <v>-175</v>
       </c>
       <c r="E2">
-        <f>styczen[[#This Row],[Saldo poczatkowe ]]+styczen[[#This Row],[operacje ]]</f>
+        <f>styczeń[[#This Row],[saldo początkowe ]]+styczeń[[#This Row],[operacje ]]</f>
         <v>-175</v>
       </c>
     </row>
@@ -6447,11 +9203,11 @@
         <v>600</v>
       </c>
       <c r="D3">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczen[[#This Row],[Bank]],Operacje[Produkt],styczen[[#This Row],[Produkt]],Operacje[Miesiąc],styczen!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń[[#This Row],[Bank]],Operacje[Produkt],styczeń[[#This Row],[Produkt]],Operacje[Miesiąc],styczeń!$B$11)</f>
         <v>1100</v>
       </c>
       <c r="E3">
-        <f>styczen[[#This Row],[Saldo poczatkowe ]]+styczen[[#This Row],[operacje ]]</f>
+        <f>styczeń[[#This Row],[saldo początkowe ]]+styczeń[[#This Row],[operacje ]]</f>
         <v>1700</v>
       </c>
     </row>
@@ -6466,11 +9222,11 @@
         <v>2000</v>
       </c>
       <c r="D4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczen[[#This Row],[Bank]],Operacje[Produkt],styczen[[#This Row],[Produkt]],Operacje[Miesiąc],styczen!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń[[#This Row],[Bank]],Operacje[Produkt],styczeń[[#This Row],[Produkt]],Operacje[Miesiąc],styczeń!$B$11)</f>
         <v>-400</v>
       </c>
       <c r="E4">
-        <f>styczen[[#This Row],[Saldo poczatkowe ]]+styczen[[#This Row],[operacje ]]</f>
+        <f>styczeń[[#This Row],[saldo początkowe ]]+styczeń[[#This Row],[operacje ]]</f>
         <v>1600</v>
       </c>
     </row>
@@ -6485,11 +9241,11 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczen[[#This Row],[Bank]],Operacje[Produkt],styczen[[#This Row],[Produkt]],Operacje[Miesiąc],styczen!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń[[#This Row],[Bank]],Operacje[Produkt],styczeń[[#This Row],[Produkt]],Operacje[Miesiąc],styczeń!$B$11)</f>
         <v>-35</v>
       </c>
       <c r="E5">
-        <f>styczen[[#This Row],[Saldo poczatkowe ]]+styczen[[#This Row],[operacje ]]</f>
+        <f>styczeń[[#This Row],[saldo początkowe ]]+styczeń[[#This Row],[operacje ]]</f>
         <v>65</v>
       </c>
     </row>
@@ -6504,11 +9260,11 @@
         <v>10.5</v>
       </c>
       <c r="D6">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczen[[#This Row],[Bank]],Operacje[Produkt],styczen[[#This Row],[Produkt]],Operacje[Miesiąc],styczen!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń[[#This Row],[Bank]],Operacje[Produkt],styczeń[[#This Row],[Produkt]],Operacje[Miesiąc],styczeń!$B$11)</f>
         <v>255.5</v>
       </c>
       <c r="E6">
-        <f>styczen[[#This Row],[Saldo poczatkowe ]]+styczen[[#This Row],[operacje ]]</f>
+        <f>styczeń[[#This Row],[saldo początkowe ]]+styczeń[[#This Row],[operacje ]]</f>
         <v>266</v>
       </c>
     </row>
@@ -6523,11 +9279,11 @@
         <v>200</v>
       </c>
       <c r="D7">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczen[[#This Row],[Bank]],Operacje[Produkt],styczen[[#This Row],[Produkt]],Operacje[Miesiąc],styczen!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń[[#This Row],[Bank]],Operacje[Produkt],styczeń[[#This Row],[Produkt]],Operacje[Miesiąc],styczeń!$B$11)</f>
         <v>-50</v>
       </c>
       <c r="E7">
-        <f>styczen[[#This Row],[Saldo poczatkowe ]]+styczen[[#This Row],[operacje ]]</f>
+        <f>styczeń[[#This Row],[saldo początkowe ]]+styczeń[[#This Row],[operacje ]]</f>
         <v>150</v>
       </c>
     </row>
@@ -6542,28 +9298,28 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczen[[#This Row],[Bank]],Operacje[Produkt],styczen[[#This Row],[Produkt]],Operacje[Miesiąc],styczen!$B$11)</f>
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń[[#This Row],[Bank]],Operacje[Produkt],styczeń[[#This Row],[Produkt]],Operacje[Miesiąc],styczeń!$B$11)</f>
         <v>150</v>
       </c>
       <c r="E8">
-        <f>styczen[[#This Row],[Saldo poczatkowe ]]+styczen[[#This Row],[operacje ]]</f>
+        <f>styczeń[[#This Row],[saldo początkowe ]]+styczeń[[#This Row],[operacje ]]</f>
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <f>SUBTOTAL(109,styczen[[Saldo poczatkowe ]])</f>
+        <f>SUBTOTAL(109,styczeń[[saldo początkowe ]])</f>
         <v>2940.5</v>
       </c>
       <c r="D9">
-        <f>SUBTOTAL(109,styczen[[operacje ]])</f>
+        <f>SUBTOTAL(109,styczeń[[operacje ]])</f>
         <v>845.5</v>
       </c>
       <c r="E9">
-        <f>SUBTOTAL(109,styczen[[saldo koncowe ]])</f>
+        <f>SUBTOTAL(109,styczeń[saldo końcowe])</f>
         <v>3786</v>
       </c>
     </row>
@@ -6574,6 +9330,10 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>styczeń</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -6583,7 +9343,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6697,7 +9457,7 @@
     <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4">
         <f>SUBTOTAL(9,C14:C22)</f>
@@ -6779,7 +9539,7 @@
     <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4">
         <f>SUBTOTAL(9,C24:C29)</f>
@@ -6800,7 +9560,7 @@
     </row>
     <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <f>SUBTOTAL(9,C31:C31)</f>
@@ -6809,7 +9569,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <f>SUBTOTAL(9,C14:C31)</f>
@@ -6817,13 +9577,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6838,8 +9598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC0F785-5AB6-41C9-818E-1F7C91C5EFA9}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6865,7 +9625,7 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6875,7 +9635,8 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
         <v>-175</v>
       </c>
       <c r="D2">
@@ -6883,7 +9644,7 @@
         <v>175</v>
       </c>
       <c r="E2">
-        <f>Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
+        <f ca="1">Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
         <v>0</v>
       </c>
     </row>
@@ -6894,16 +9655,17 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>600</v>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1700</v>
       </c>
       <c r="D3">
         <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Luty[[#This Row],[Bank]],Operacje[Produkt],Luty[[#This Row],[Produkt]],Operacje[Miesiąc],Luty!$B$11)</f>
         <v>2039.5</v>
       </c>
       <c r="E3">
-        <f>Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
-        <v>2639.5</v>
+        <f ca="1">Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
+        <v>3739.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6913,16 +9675,17 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>2000</v>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1600</v>
       </c>
       <c r="D4">
         <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Luty[[#This Row],[Bank]],Operacje[Produkt],Luty[[#This Row],[Produkt]],Operacje[Miesiąc],Luty!$B$11)</f>
         <v>-400</v>
       </c>
       <c r="E4">
-        <f>Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
-        <v>1600</v>
+        <f ca="1">Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6932,16 +9695,17 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>100</v>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>65</v>
       </c>
       <c r="D5">
         <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Luty[[#This Row],[Bank]],Operacje[Produkt],Luty[[#This Row],[Produkt]],Operacje[Miesiąc],Luty!$B$11)</f>
         <v>35</v>
       </c>
       <c r="E5">
-        <f>Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
-        <v>135</v>
+        <f ca="1">Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6951,16 +9715,17 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>10.5</v>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>266</v>
       </c>
       <c r="D6">
         <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Luty[[#This Row],[Bank]],Operacje[Produkt],Luty[[#This Row],[Produkt]],Operacje[Miesiąc],Luty!$B$11)</f>
         <v>15</v>
       </c>
       <c r="E6">
-        <f>Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
-        <v>25.5</v>
+        <f ca="1">Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6970,16 +9735,17 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7">
-        <v>200</v>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>150</v>
       </c>
       <c r="D7">
         <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Luty[[#This Row],[Bank]],Operacje[Produkt],Luty[[#This Row],[Produkt]],Operacje[Miesiąc],Luty!$B$11)</f>
         <v>100</v>
       </c>
       <c r="E7">
-        <f>Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
-        <v>300</v>
+        <f ca="1">Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6989,33 +9755,34 @@
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8">
-        <v>30</v>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>180</v>
       </c>
       <c r="D8">
         <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Luty[[#This Row],[Bank]],Operacje[Produkt],Luty[[#This Row],[Produkt]],Operacje[Miesiąc],Luty!$B$11)</f>
         <v>500</v>
       </c>
       <c r="E8">
-        <f>Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
-        <v>530</v>
+        <f ca="1">Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</f>
+        <v>680</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <f>SUBTOTAL(109,Luty[[Saldo poczatkowe ]])</f>
-        <v>2765.5</v>
+        <f ca="1">SUBTOTAL(109,Luty[[Saldo poczatkowe ]])</f>
+        <v>3786</v>
       </c>
       <c r="D9">
         <f>SUBTOTAL(109,Luty[[operacje ]])</f>
         <v>2464.5</v>
       </c>
       <c r="E9">
-        <f>SUBTOTAL(109,Luty[[saldo koncowe ]])</f>
-        <v>5230</v>
+        <f ca="1">SUBTOTAL(109,Luty[saldo końcowe])</f>
+        <v>6250.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7025,6 +9792,10 @@
       <c r="B11">
         <v>2</v>
       </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>luty</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -7034,7 +9805,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7148,7 +9919,7 @@
     <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4">
         <f>SUBTOTAL(9,C14:C22)</f>
@@ -7230,7 +10001,7 @@
     <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4">
         <f>SUBTOTAL(9,C24:C29)</f>
@@ -7251,7 +10022,7 @@
     </row>
     <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <f>SUBTOTAL(9,C31:C31)</f>
@@ -7260,7 +10031,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <f>SUBTOTAL(9,C14:C31)</f>
@@ -7268,13 +10039,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7283,4 +10054,2317 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E04C2-035A-4328-9657-58AB8BD3657C}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <f ca="1">marzec!E8</f>
+        <v>670.5</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Marzec[[#This Row],[Bank]],Operacje[Produkt],Marzec[[#This Row],[Produkt]],Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-104.5</v>
+      </c>
+      <c r="E2">
+        <f ca="1">Marzec[[#This Row],[Saldo poczatkowe ]]+Marzec[[#This Row],[operacje ]]</f>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>3739.5</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Marzec[[#This Row],[Bank]],Operacje[Produkt],Marzec[[#This Row],[Produkt]],Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>821.59999999999991</v>
+      </c>
+      <c r="E3">
+        <f ca="1">Marzec[[#This Row],[Saldo poczatkowe ]]+Marzec[[#This Row],[operacje ]]</f>
+        <v>4561.1000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Marzec[[#This Row],[Bank]],Operacje[Produkt],Marzec[[#This Row],[Produkt]],Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f ca="1">Marzec[[#This Row],[Saldo poczatkowe ]]+Marzec[[#This Row],[operacje ]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Marzec[[#This Row],[Bank]],Operacje[Produkt],Marzec[[#This Row],[Produkt]],Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>67.5</v>
+      </c>
+      <c r="E5">
+        <f ca="1">Marzec[[#This Row],[Saldo poczatkowe ]]+Marzec[[#This Row],[operacje ]]</f>
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>281</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Marzec[[#This Row],[Bank]],Operacje[Produkt],Marzec[[#This Row],[Produkt]],Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f ca="1">Marzec[[#This Row],[Saldo poczatkowe ]]+Marzec[[#This Row],[operacje ]]</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Marzec[[#This Row],[Bank]],Operacje[Produkt],Marzec[[#This Row],[Produkt]],Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-24.49</v>
+      </c>
+      <c r="E7">
+        <f ca="1">Marzec[[#This Row],[Saldo poczatkowe ]]+Marzec[[#This Row],[operacje ]]</f>
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>680</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Marzec[[#This Row],[Bank]],Operacje[Produkt],Marzec[[#This Row],[Produkt]],Operacje[Miesiąc],marzec!$B$11)</f>
+        <v>-9.5</v>
+      </c>
+      <c r="E8">
+        <f ca="1">Marzec[[#This Row],[Saldo poczatkowe ]]+Marzec[[#This Row],[operacje ]]</f>
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Marzec[[Saldo poczatkowe ]])</f>
+        <v>6921</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Marzec[[operacje ]])</f>
+        <v>755.6099999999999</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Marzec[saldo końcowe])</f>
+        <v>7676.6100000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>marzec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-734.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>-469.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>-79.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>-82.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-3899.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>755.61000000000013</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC43500B-4849-4C10-93B0-C9165CDC2EB4}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>566</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Kwiecień[[#This Row],[Bank]],Operacje[Produkt],Kwiecień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>13.110000000000007</v>
+      </c>
+      <c r="E2">
+        <f ca="1">Kwiecień[[#This Row],[Saldo poczatkowe ]]+Kwiecień[[#This Row],[operacje ]]</f>
+        <v>579.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>4561.1000000000004</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Kwiecień[[#This Row],[Bank]],Operacje[Produkt],Kwiecień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>562.72999999999968</v>
+      </c>
+      <c r="E3">
+        <f ca="1">Kwiecień[[#This Row],[Saldo poczatkowe ]]+Kwiecień[[#This Row],[operacje ]]</f>
+        <v>5123.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Kwiecień[[#This Row],[Bank]],Operacje[Produkt],Kwiecień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f ca="1">Kwiecień[[#This Row],[Saldo poczatkowe ]]+Kwiecień[[#This Row],[operacje ]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>167.5</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Kwiecień[[#This Row],[Bank]],Operacje[Produkt],Kwiecień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>101</v>
+      </c>
+      <c r="E5">
+        <f ca="1">Kwiecień[[#This Row],[Saldo poczatkowe ]]+Kwiecień[[#This Row],[operacje ]]</f>
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>286</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Kwiecień[[#This Row],[Bank]],Operacje[Produkt],Kwiecień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <f ca="1">Kwiecień[[#This Row],[Saldo poczatkowe ]]+Kwiecień[[#This Row],[operacje ]]</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Kwiecień[[#This Row],[Bank]],Operacje[Produkt],Kwiecień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f ca="1">Kwiecień[[#This Row],[Saldo poczatkowe ]]+Kwiecień[[#This Row],[operacje ]]</f>
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Kwiecień[[#This Row],[Bank]],Operacje[Produkt],Kwiecień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f ca="1">Kwiecień[[#This Row],[Saldo poczatkowe ]]+Kwiecień[[#This Row],[operacje ]]</f>
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Kwiecień[[Saldo poczatkowe ]])</f>
+        <v>7676.6100000000006</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Kwiecień[[operacje ]])</f>
+        <v>726.83999999999969</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Kwiecień[saldo końcowe])</f>
+        <v>8403.4500000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>kwiecień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-372.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-1057.9000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>-82.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>-23.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-3973.1600000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>726.83999999999969</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAB0F68-DF63-4342-A47C-DA6EB0C4E452}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>579.11</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj[[#This Row],[Bank]],Operacje[Produkt],maj[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-908.61</v>
+      </c>
+      <c r="E2">
+        <f ca="1">maj[[#This Row],[Saldo poczatkowe ]]+maj[[#This Row],[operacje ]]</f>
+        <v>-329.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>5123.83</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj[[#This Row],[Bank]],Operacje[Produkt],maj[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>2328.61</v>
+      </c>
+      <c r="E3">
+        <f ca="1">maj[[#This Row],[Saldo poczatkowe ]]+maj[[#This Row],[operacje ]]</f>
+        <v>7452.4400000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj[[#This Row],[Bank]],Operacje[Produkt],maj[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f ca="1">maj[[#This Row],[Saldo poczatkowe ]]+maj[[#This Row],[operacje ]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>268.5</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj[[#This Row],[Bank]],Operacje[Produkt],maj[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-50</v>
+      </c>
+      <c r="E5">
+        <f ca="1">maj[[#This Row],[Saldo poczatkowe ]]+maj[[#This Row],[operacje ]]</f>
+        <v>218.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj[[#This Row],[Bank]],Operacje[Produkt],maj[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f ca="1">maj[[#This Row],[Saldo poczatkowe ]]+maj[[#This Row],[operacje ]]</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj[[#This Row],[Bank]],Operacje[Produkt],maj[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f ca="1">maj[[#This Row],[Saldo poczatkowe ]]+maj[[#This Row],[operacje ]]</f>
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],maj[[#This Row],[Bank]],Operacje[Produkt],maj[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-80</v>
+      </c>
+      <c r="E8">
+        <f ca="1">maj[[#This Row],[Saldo poczatkowe ]]+maj[[#This Row],[operacje ]]</f>
+        <v>590.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,maj[[Saldo poczatkowe ]])</f>
+        <v>8403.4500000000007</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,maj[[operacje ]])</f>
+        <v>1290</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,maj[saldo końcowe])</f>
+        <v>9693.4500000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>maj</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-3210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1290</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62986C61-F6A1-42C3-B0D5-19B27E7132A4}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>-329.5</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Czerwiec[[#This Row],[Bank]],Operacje[Produkt],Czerwiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-300</v>
+      </c>
+      <c r="E2">
+        <f ca="1">Czerwiec[[#This Row],[Saldo poczatkowe ]]+Czerwiec[[#This Row],[operacje ]]</f>
+        <v>-629.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>7452.4400000000005</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Czerwiec[[#This Row],[Bank]],Operacje[Produkt],Czerwiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1420</v>
+      </c>
+      <c r="E3">
+        <f ca="1">Czerwiec[[#This Row],[Saldo poczatkowe ]]+Czerwiec[[#This Row],[operacje ]]</f>
+        <v>8872.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Czerwiec[[#This Row],[Bank]],Operacje[Produkt],Czerwiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f ca="1">Czerwiec[[#This Row],[Saldo poczatkowe ]]+Czerwiec[[#This Row],[operacje ]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>218.5</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Czerwiec[[#This Row],[Bank]],Operacje[Produkt],Czerwiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>250</v>
+      </c>
+      <c r="E5">
+        <f ca="1">Czerwiec[[#This Row],[Saldo poczatkowe ]]+Czerwiec[[#This Row],[operacje ]]</f>
+        <v>468.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Czerwiec[[#This Row],[Bank]],Operacje[Produkt],Czerwiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f ca="1">Czerwiec[[#This Row],[Saldo poczatkowe ]]+Czerwiec[[#This Row],[operacje ]]</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Czerwiec[[#This Row],[Bank]],Operacje[Produkt],Czerwiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f ca="1">Czerwiec[[#This Row],[Saldo poczatkowe ]]+Czerwiec[[#This Row],[operacje ]]</f>
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>590.5</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Czerwiec[[#This Row],[Bank]],Operacje[Produkt],Czerwiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-200</v>
+      </c>
+      <c r="E8">
+        <f ca="1">Czerwiec[[#This Row],[Saldo poczatkowe ]]+Czerwiec[[#This Row],[operacje ]]</f>
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Czerwiec[[Saldo poczatkowe ]])</f>
+        <v>9693.4500000000007</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Czerwiec[[operacje ]])</f>
+        <v>1170</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Czerwiec[saldo końcowe])</f>
+        <v>10863.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>czerwiec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-3730</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1170</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E45C0D-6725-4B95-B145-2DA48FFBDE83}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>-629.5</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1165</v>
+      </c>
+      <c r="E2">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>535.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>8872.44</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1010</v>
+      </c>
+      <c r="E3">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>9882.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-180</v>
+      </c>
+      <c r="E4">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>468.5</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-100</v>
+      </c>
+      <c r="E5">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>368.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1050</v>
+      </c>
+      <c r="E6">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-30</v>
+      </c>
+      <c r="E7">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Lipiec[[Saldo poczatkowe ]])</f>
+        <v>10863.45</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Lipiec[[operacje ]])</f>
+        <v>2915</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Lipiec[saldo końcowe])</f>
+        <v>13778.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>lipiec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-3005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2915</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/FinanseKS239473.xlsx
+++ b/FinanseKS239473.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-16.CAMPUS.013\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8146DB4B-E2DA-410B-8390-012CE4B968AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1747E93-A66E-4913-B2A7-F6B048E17897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operacje" sheetId="1" r:id="rId1"/>
     <sheet name="kategorie" sheetId="2" r:id="rId2"/>
-    <sheet name="styczeń" sheetId="3" r:id="rId3"/>
-    <sheet name="Luty" sheetId="4" r:id="rId4"/>
-    <sheet name="marzec" sheetId="5" r:id="rId5"/>
-    <sheet name="kwiecien" sheetId="6" r:id="rId6"/>
-    <sheet name="maj" sheetId="7" r:id="rId7"/>
-    <sheet name="Czerwiec" sheetId="8" r:id="rId8"/>
-    <sheet name="Lipiec" sheetId="9" r:id="rId9"/>
-    <sheet name="Sierpień" sheetId="10" r:id="rId10"/>
-    <sheet name="Wrzesień" sheetId="11" r:id="rId11"/>
-    <sheet name="Październik" sheetId="12" r:id="rId12"/>
-    <sheet name="Listopad" sheetId="13" r:id="rId13"/>
-    <sheet name="Grudzień" sheetId="14" r:id="rId14"/>
+    <sheet name="saldo" sheetId="15" r:id="rId3"/>
+    <sheet name="styczeń" sheetId="3" r:id="rId4"/>
+    <sheet name="Luty" sheetId="4" r:id="rId5"/>
+    <sheet name="marzec" sheetId="5" r:id="rId6"/>
+    <sheet name="kwiecien" sheetId="6" r:id="rId7"/>
+    <sheet name="maj" sheetId="7" r:id="rId8"/>
+    <sheet name="Czerwiec" sheetId="8" r:id="rId9"/>
+    <sheet name="Lipiec" sheetId="9" r:id="rId10"/>
+    <sheet name="Sierpień" sheetId="10" r:id="rId11"/>
+    <sheet name="Wrzesień" sheetId="11" r:id="rId12"/>
+    <sheet name="Październik" sheetId="12" r:id="rId13"/>
+    <sheet name="Listopad" sheetId="13" r:id="rId14"/>
+    <sheet name="Grudzień" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="56">
   <si>
     <t>Kwota</t>
   </si>
@@ -202,6 +203,42 @@
   <si>
     <t>saldo końcowe</t>
   </si>
+  <si>
+    <t>Styczeń</t>
+  </si>
+  <si>
+    <t>Luty</t>
+  </si>
+  <si>
+    <t>Marzec</t>
+  </si>
+  <si>
+    <t>Kwiecień</t>
+  </si>
+  <si>
+    <t>Maj</t>
+  </si>
+  <si>
+    <t>Czerwiec</t>
+  </si>
+  <si>
+    <t>Lipiec</t>
+  </si>
+  <si>
+    <t>Sierpień</t>
+  </si>
+  <si>
+    <t>Wrzesień</t>
+  </si>
+  <si>
+    <t>Październik</t>
+  </si>
+  <si>
+    <t>Listopad</t>
+  </si>
+  <si>
+    <t>Grudzień</t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,13 +271,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -270,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,43 +328,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -353,12 +372,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -374,87 +387,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -491,44 +423,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -561,6 +455,173 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -742,18 +803,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7D0310-CFAE-4EAF-B51C-C9B1FD76BDB0}" name="Operacje" displayName="Operacje" ref="A1:G208" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7D0310-CFAE-4EAF-B51C-C9B1FD76BDB0}" name="Operacje" displayName="Operacje" ref="A1:G208" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:G208" xr:uid="{CC7D0310-CFAE-4EAF-B51C-C9B1FD76BDB0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F66925A8-47D1-41C4-B7D6-57D378AD43D9}" name="Kwota" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{11183462-587F-4C50-A5B6-078BF6849846}" name="Bank" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{7242B078-35B4-4810-B5A8-2035E5AA03D9}" name="Produkt" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{8132C765-34B2-41B5-B6B8-728856978198}" name="Kategoria" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{431E4DA3-32E1-4329-8AF5-3E20FE2C66B3}" name="Typ" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{F66925A8-47D1-41C4-B7D6-57D378AD43D9}" name="Kwota" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{11183462-587F-4C50-A5B6-078BF6849846}" name="Bank" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{7242B078-35B4-4810-B5A8-2035E5AA03D9}" name="Produkt" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{8132C765-34B2-41B5-B6B8-728856978198}" name="Kategoria" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{431E4DA3-32E1-4329-8AF5-3E20FE2C66B3}" name="Typ" dataDxfId="53">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Operacje[[#This Row],[Kategoria]],Kategorie[Kategoria],Kategorie[Typ],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BF56E8D7-E44D-465E-8578-24875C6E4AA7}" name="Data" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{4536A06F-1909-4E43-B793-154CABF88C17}" name="Miesiąc" dataDxfId="49">
+    <tableColumn id="6" xr3:uid="{BF56E8D7-E44D-465E-8578-24875C6E4AA7}" name="Data" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{4536A06F-1909-4E43-B793-154CABF88C17}" name="Miesiąc" dataDxfId="51">
       <calculatedColumnFormula>IF(ISBLANK(Operacje[[#Headers],[Data]])," -",MONTH(Operacje[[#This Row],[Data]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -762,6 +823,26 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FCC5A945-0989-433F-9F39-D5BD35FD091C}" name="Czerwiec" displayName="Czerwiec" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{29BC0C48-4CF3-49D0-8233-C64A19F196C5}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{399CA472-1F89-424E-A88B-934DFEB2424F}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{CDDD0AF5-BFE3-48E8-879C-77EF122CECE6}" name="Saldo poczatkowe " totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E8EB450C-BDF9-41A9-9B5D-8609EFA79CA2}" name="operacje " totalsRowFunction="sum" dataDxfId="44">
+      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Czerwiec[[#This Row],[Bank]],Operacje[Produkt],Czerwiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{276A2850-CA44-4445-8A74-17BB12FED55D}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="43">
+      <calculatedColumnFormula>Czerwiec[[#This Row],[Saldo poczatkowe ]]+Czerwiec[[#This Row],[operacje ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{78123CB7-D719-4E30-B502-2823C613249C}" name="Lipiec" displayName="Lipiec" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
@@ -770,10 +851,10 @@
     <tableColumn id="3" xr3:uid="{6B373F49-AA6A-49EB-8858-63EC4F2DBC5B}" name="Saldo poczatkowe " totalsRowFunction="sum">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8885C736-0DCB-41BF-9E24-2B763227B957}" name="operacje " totalsRowFunction="sum" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{8885C736-0DCB-41BF-9E24-2B763227B957}" name="operacje " totalsRowFunction="sum" dataDxfId="42">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18A5A389-B7BF-4119-A7EB-747CCE1AFC54}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{18A5A389-B7BF-4119-A7EB-747CCE1AFC54}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="41">
       <calculatedColumnFormula>Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -781,7 +862,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{967C468F-9968-417E-B8DC-CD87C124CF43}" name="Sierpień" displayName="Sierpień" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
@@ -790,10 +871,10 @@
     <tableColumn id="3" xr3:uid="{8A7D82E0-3777-4943-B687-EE2C2134AA85}" name="Saldo poczatkowe " totalsRowFunction="sum">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1E19D05B-313A-4DF0-A605-2B2392E8E9E5}" name="operacje " totalsRowFunction="sum" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{1E19D05B-313A-4DF0-A605-2B2392E8E9E5}" name="operacje " totalsRowFunction="sum" dataDxfId="38">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Sierpień[[#This Row],[Bank]],Operacje[Produkt],Sierpień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DD195E2F-EA1D-49FA-8A4A-B31C692021D5}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{DD195E2F-EA1D-49FA-8A4A-B31C692021D5}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="37">
       <calculatedColumnFormula>Sierpień[[#This Row],[Saldo poczatkowe ]]+Sierpień[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -801,7 +882,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2370AD60-A5B6-4FA3-B20D-8F8C45C18510}" name="Wrzesień" displayName="Wrzesień" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
@@ -810,10 +891,10 @@
     <tableColumn id="3" xr3:uid="{AB5DB895-89CC-4B20-8546-5C354F6EEC13}" name="Saldo poczatkowe " totalsRowFunction="sum">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F4836F32-1C5D-4910-B037-68DF09317DB9}" name="operacje " totalsRowFunction="sum" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{F4836F32-1C5D-4910-B037-68DF09317DB9}" name="operacje " totalsRowFunction="sum" dataDxfId="36">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Wrzesień[[#This Row],[Bank]],Operacje[Produkt],Wrzesień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1C6DDB09-2312-498F-863D-918ED595E50D}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{1C6DDB09-2312-498F-863D-918ED595E50D}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="35">
       <calculatedColumnFormula>Wrzesień[[#This Row],[Saldo poczatkowe ]]+Wrzesień[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -821,7 +902,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0E7D389F-0C37-45BB-BB05-3560012F4A19}" name="Październik" displayName="Październik" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
@@ -830,10 +911,10 @@
     <tableColumn id="3" xr3:uid="{1FDF8201-A0FF-42B1-B8CC-522383FC8E8B}" name="Saldo poczatkowe " totalsRowFunction="sum">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{70816532-36D2-4ACD-B520-26DE23F6A852}" name="operacje " totalsRowFunction="sum" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{70816532-36D2-4ACD-B520-26DE23F6A852}" name="operacje " totalsRowFunction="sum" dataDxfId="30">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Październik[[#This Row],[Bank]],Operacje[Produkt],Październik[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E589831-C0A5-4469-9B2A-20939BB69D0F}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{8E589831-C0A5-4469-9B2A-20939BB69D0F}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="29">
       <calculatedColumnFormula>Październik[[#This Row],[Saldo poczatkowe ]]+Październik[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -841,7 +922,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9F5EFF9E-C0D0-48A1-A238-2A3BC1EFB823}" name="Listopad" displayName="Listopad" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
@@ -850,10 +931,10 @@
     <tableColumn id="3" xr3:uid="{E8CB40E4-22EC-4ACD-9FAE-4AE499E46232}" name="Saldo poczatkowe " totalsRowFunction="sum">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BFBF0F5B-E447-44C3-BCFE-8CC82CFDAE62}" name="operacje " totalsRowFunction="sum" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{BFBF0F5B-E447-44C3-BCFE-8CC82CFDAE62}" name="operacje " totalsRowFunction="sum" dataDxfId="34">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Listopad[[#This Row],[Bank]],Operacje[Produkt],Listopad[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{783283EC-7BF2-4F49-8EF8-0636DA091A19}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{783283EC-7BF2-4F49-8EF8-0636DA091A19}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="33">
       <calculatedColumnFormula>Listopad[[#This Row],[Saldo poczatkowe ]]+Listopad[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -861,7 +942,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EB0905A8-3C32-43A4-AB1E-6112736F3519}" name="Grudzień" displayName="Grudzień" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
@@ -870,10 +951,10 @@
     <tableColumn id="3" xr3:uid="{F1EDFC23-01F9-427B-94CE-71BF04062B75}" name="Saldo poczatkowe " totalsRowFunction="sum">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{380E6F6F-CD60-442C-9A0F-8B1B59B61519}" name="operacje " totalsRowFunction="sum" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{380E6F6F-CD60-442C-9A0F-8B1B59B61519}" name="operacje " totalsRowFunction="sum" dataDxfId="32">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Grudzień[[#This Row],[Bank]],Operacje[Produkt],Grudzień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{42311C66-1D98-472C-B4A5-76E513156EB3}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{42311C66-1D98-472C-B4A5-76E513156EB3}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="31">
       <calculatedColumnFormula>Grudzień[[#This Row],[Saldo poczatkowe ]]+Grudzień[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -907,16 +988,63 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{18BA1341-DE18-44BB-89B4-E33677BBC45F}" name="Saldo" displayName="Saldo" ref="A1:N9" totalsRowCount="1">
+  <autoFilter ref="A1:N8" xr:uid="{18BA1341-DE18-44BB-89B4-E33677BBC45F}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{8857B87B-06FE-4192-AD58-5B0B7AC2BEEF}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{C8ABFB5C-71BA-4FD9-B394-8642572B6D3C}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{DA398D7F-3228-4C38-84D6-3DB289E01EB8}" name="Styczeń" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Styczeń]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{23D04AF6-489A-4A47-8941-F7AEE42ED077}" name="Luty" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Luty]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{3F28E86B-AFBE-4D08-A911-2914984A50C2}" name="Marzec" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Marzec]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{95A71EB6-3627-4FC3-A78A-984D56008F1D}" name="Kwiecień" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Kwiecień]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{50F94CC0-19B7-4133-8915-DF16BCFBD379}" name="Maj" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Maj]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{95DE6CBD-463E-436B-B62A-906EF5319C25}" name="Czerwiec" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Czerwiec]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{7AA06B01-05FF-4B6A-ABA3-D6D7C0EDB43C}" name="Lipiec" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Lipiec]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{2C1578F6-F0CA-4D79-B5C4-A0BCFDE52216}" name="Sierpień" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Sierpień]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{D0007D3C-7FEC-4132-9199-6F684F00C921}" name="Wrzesień" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Wrzesień]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{EF45CDC9-CCE8-4B4C-BCEF-D247A80EA0DA}" name="Październik" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Październik]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{588CE829-4752-49A1-AAC3-27242F68899A}" name="Listopad" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Listopad]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{BD472FFE-0B3C-4836-8CC2-2D351C28BDE8}" name="Grudzień" totalsRowFunction="sum">
+      <calculatedColumnFormula array="1">INDIRECT(Saldo[[#Headers],[Grudzień]]&amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}" name="styczeń" displayName="styczeń" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{44F6DF74-C9EC-4290-AA3D-94AAC50532A7}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{67ECEE32-81C0-4053-AC0B-193D836B8499}" name="Produkt"/>
     <tableColumn id="3" xr3:uid="{077AAC6E-A15D-4078-82B6-7C98D98B780A}" name="saldo początkowe " totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{176ED41B-20C7-4613-93E1-5A7689C724A3}" name="operacje " totalsRowFunction="sum" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{176ED41B-20C7-4613-93E1-5A7689C724A3}" name="operacje " totalsRowFunction="sum" dataDxfId="48">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],styczeń[[#This Row],[Bank]],Operacje[Produkt],styczeń[[#This Row],[Produkt]],Operacje[Miesiąc],styczeń!$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{61F42F39-9756-433C-A1A6-28A603920CAB}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="36">
+    <tableColumn id="5" xr3:uid="{61F42F39-9756-433C-A1A6-28A603920CAB}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="47">
       <calculatedColumnFormula>styczeń[[#This Row],[saldo początkowe ]]+styczeń[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -924,19 +1052,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DB753FAF-068D-4F85-B24C-3A003EA175DC}" name="Luty" displayName="Luty" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F577D5F3-A8E6-4E42-B516-159031619A3B}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{2BC63C6A-ADD8-4120-9C54-5200E300E86B}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{4B49800A-5E70-4F58-AEDE-895595E08037}" name="Saldo poczatkowe " totalsRowFunction="sum" dataDxfId="38">
+    <tableColumn id="3" xr3:uid="{4B49800A-5E70-4F58-AEDE-895595E08037}" name="Saldo poczatkowe " totalsRowFunction="sum" dataDxfId="28">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{64EEBD97-B7CA-4724-ADD8-7CB6242B3E2D}" name="operacje " totalsRowFunction="sum" dataDxfId="40">
+    <tableColumn id="4" xr3:uid="{64EEBD97-B7CA-4724-ADD8-7CB6242B3E2D}" name="operacje " totalsRowFunction="sum" dataDxfId="27">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Luty[[#This Row],[Bank]],Operacje[Produkt],Luty[[#This Row],[Produkt]],Operacje[Miesiąc],Luty!$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F735DFEF-E9D5-4CF5-89B5-DBBD612618C1}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="39">
+    <tableColumn id="5" xr3:uid="{F735DFEF-E9D5-4CF5-89B5-DBBD612618C1}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="26">
       <calculatedColumnFormula>Luty[[#This Row],[Saldo poczatkowe ]]+Luty[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -944,7 +1072,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9055C590-3AEC-4EAA-A21B-1B753672A0C9}" name="Marzec" displayName="Marzec" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
@@ -953,10 +1081,10 @@
     <tableColumn id="3" xr3:uid="{44A37303-19DB-4526-91EA-6DDF822212F0}" name="Saldo poczatkowe " totalsRowFunction="sum">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EC7A334E-DFEA-4B66-9534-F78D348653BB}" name="operacje " totalsRowFunction="sum" dataDxfId="43">
+    <tableColumn id="4" xr3:uid="{EC7A334E-DFEA-4B66-9534-F78D348653BB}" name="operacje " totalsRowFunction="sum" dataDxfId="50">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Marzec[[#This Row],[Bank]],Operacje[Produkt],Marzec[[#This Row],[Produkt]],Operacje[Miesiąc],marzec!$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ACB122F5-2829-4972-A585-078A29D6A3E1}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="42">
+    <tableColumn id="5" xr3:uid="{ACB122F5-2829-4972-A585-078A29D6A3E1}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="49">
       <calculatedColumnFormula>Marzec[[#This Row],[Saldo poczatkowe ]]+Marzec[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -964,7 +1092,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2C7C88AB-A7E0-48CA-9FCB-202D908879D3}" name="Kwiecień" displayName="Kwiecień" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
@@ -973,10 +1101,10 @@
     <tableColumn id="3" xr3:uid="{C0F5F843-B4BF-440D-B5E6-D13EB3FA92FA}" name="Saldo poczatkowe " totalsRowFunction="sum">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{87221E3D-1DCC-4334-99F0-295A99E5903E}" name="operacje " totalsRowFunction="sum" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{87221E3D-1DCC-4334-99F0-295A99E5903E}" name="operacje " totalsRowFunction="sum" dataDxfId="40">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Kwiecień[[#This Row],[Bank]],Operacje[Produkt],Kwiecień[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2225963A-4444-4C36-A4C5-878BD15B747A}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{2225963A-4444-4C36-A4C5-878BD15B747A}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="39">
       <calculatedColumnFormula>Kwiecień[[#This Row],[Saldo poczatkowe ]]+Kwiecień[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -984,7 +1112,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DAECCF63-83E0-40C9-AD18-B0DA3FCB6EA9}" name="maj" displayName="maj" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
   <tableColumns count="5">
@@ -993,31 +1121,11 @@
     <tableColumn id="3" xr3:uid="{399261C0-F6AD-4D85-9D77-83B2064EE123}" name="Saldo poczatkowe " totalsRowFunction="sum">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{862D51B4-A1DC-46D0-B698-FA874EA554AA}" name="operacje " totalsRowFunction="sum" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{862D51B4-A1DC-46D0-B698-FA874EA554AA}" name="operacje " totalsRowFunction="sum" dataDxfId="46">
       <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],maj[[#This Row],[Bank]],Operacje[Produkt],maj[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4105CB5E-7939-4C54-B1FB-647AC4EA8DFE}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{4105CB5E-7939-4C54-B1FB-647AC4EA8DFE}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="45">
       <calculatedColumnFormula>maj[[#This Row],[Saldo poczatkowe ]]+maj[[#This Row],[operacje ]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FCC5A945-0989-433F-9F39-D5BD35FD091C}" name="Czerwiec" displayName="Czerwiec" ref="A1:E9" totalsRowCount="1">
-  <autoFilter ref="A1:E8" xr:uid="{3FDAE126-3536-48BA-8872-01E3976F28FD}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{29BC0C48-4CF3-49D0-8233-C64A19F196C5}" name="Bank" totalsRowLabel="Suma"/>
-    <tableColumn id="2" xr3:uid="{399CA472-1F89-424E-A88B-934DFEB2424F}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{CDDD0AF5-BFE3-48E8-879C-77EF122CECE6}" name="Saldo poczatkowe " totalsRowFunction="sum">
-      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{E8EB450C-BDF9-41A9-9B5D-8609EFA79CA2}" name="operacje " totalsRowFunction="sum" dataDxfId="27">
-      <calculatedColumnFormula>SUMIFS(Operacje[Kwota],Operacje[Bank],Czerwiec[[#This Row],[Bank]],Operacje[Produkt],Czerwiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{276A2850-CA44-4445-8A74-17BB12FED55D}" name="saldo końcowe" totalsRowFunction="sum" dataDxfId="26">
-      <calculatedColumnFormula>Czerwiec[[#This Row],[Saldo poczatkowe ]]+Czerwiec[[#This Row],[operacje ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6583,6 +6691,469 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E45C0D-6725-4B95-B145-2DA48FFBDE83}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>-629.5</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1165</v>
+      </c>
+      <c r="E2">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>535.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>8872.44</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1010</v>
+      </c>
+      <c r="E3">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>9882.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-180</v>
+      </c>
+      <c r="E4">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>468.5</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-100</v>
+      </c>
+      <c r="E5">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>368.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>1050</v>
+      </c>
+      <c r="E6">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>-30</v>
+      </c>
+      <c r="E7">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Lipiec[[Saldo poczatkowe ]])</f>
+        <v>10863.45</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Lipiec[[operacje ]])</f>
+        <v>2915</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Lipiec[saldo końcowe])</f>
+        <v>13778.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
+        <v>lipiec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUBTOTAL(9,C14:C22)</f>
+        <v>-3005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUBTOTAL(9,C24:C29)</f>
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C31:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2915</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:C33">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E9">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA7F127-0B7C-4F3D-93D4-C46F508CE31C}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7028,12 +7599,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7045,7 +7616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D4A8E8-D86D-4599-B994-3CB852AA89E2}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7491,12 +8062,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7508,7 +8079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241B73E1-1ADE-4E30-9CC0-E3727C883C94}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7954,12 +8525,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7971,12 +8542,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27BEE2F-22E3-4161-ACC6-1A4F51E8653D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -8417,12 +8988,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8434,12 +9005,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA89F52-39D0-44A5-B83D-EFB6AB5CAFB5}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -8684,7 +9255,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -8696,7 +9267,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -8708,7 +9279,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -8720,7 +9291,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -8732,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -8743,8 +9314,9 @@
         <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -8756,7 +9328,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>39</v>
@@ -8766,7 +9338,7 @@
         <v>-4080</v>
       </c>
     </row>
-    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -8778,7 +9350,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -8790,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -8802,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
@@ -8814,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -8826,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -8838,7 +9410,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>40</v>
@@ -8848,7 +9420,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -8860,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>41</v>
       </c>
@@ -8880,12 +9452,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9140,6 +9712,526 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DECE5D-148C-40F2-8544-4A73951A171B}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(Saldo[[#Headers],[Styczeń]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>-175</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(Saldo[[#Headers],[Luty]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">INDIRECT(Saldo[[#Headers],[Marzec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>566</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">INDIRECT(Saldo[[#Headers],[Kwiecień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>579.11</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">INDIRECT(Saldo[[#Headers],[Maj]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>-329.5</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" aca="1" ref="H2" ca="1">INDIRECT(Saldo[[#Headers],[Czerwiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>-629.5</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">INDIRECT(Saldo[[#Headers],[Lipiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>535.5</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" aca="1" ref="J2" ca="1">INDIRECT(Saldo[[#Headers],[Sierpień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>568.5</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">INDIRECT(Saldo[[#Headers],[Wrzesień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>650.5</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">INDIRECT(Saldo[[#Headers],[Październik]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>630.5</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">INDIRECT(Saldo[[#Headers],[Listopad]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="N2" cm="1">
+        <f t="array" aca="1" ref="N2" ca="1">INDIRECT(Saldo[[#Headers],[Grudzień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(Saldo[[#Headers],[Styczeń]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1700</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(Saldo[[#Headers],[Luty]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>3739.5</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">INDIRECT(Saldo[[#Headers],[Marzec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>4561.1000000000004</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">INDIRECT(Saldo[[#Headers],[Kwiecień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>5123.83</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">INDIRECT(Saldo[[#Headers],[Maj]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>7452.4400000000005</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">INDIRECT(Saldo[[#Headers],[Czerwiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>8872.44</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">INDIRECT(Saldo[[#Headers],[Lipiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>9882.44</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">INDIRECT(Saldo[[#Headers],[Sierpień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>11357.44</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">INDIRECT(Saldo[[#Headers],[Wrzesień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>13046.94</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">INDIRECT(Saldo[[#Headers],[Październik]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>14736.94</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">INDIRECT(Saldo[[#Headers],[Listopad]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>15696.94</v>
+      </c>
+      <c r="N3" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">INDIRECT(Saldo[[#Headers],[Grudzień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>17016.940000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(Saldo[[#Headers],[Styczeń]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1600</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(Saldo[[#Headers],[Luty]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">INDIRECT(Saldo[[#Headers],[Marzec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">INDIRECT(Saldo[[#Headers],[Kwiecień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" aca="1" ref="G4" ca="1">INDIRECT(Saldo[[#Headers],[Maj]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">INDIRECT(Saldo[[#Headers],[Czerwiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">INDIRECT(Saldo[[#Headers],[Lipiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1020</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">INDIRECT(Saldo[[#Headers],[Sierpień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="K4" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">INDIRECT(Saldo[[#Headers],[Wrzesień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">INDIRECT(Saldo[[#Headers],[Październik]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">INDIRECT(Saldo[[#Headers],[Listopad]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="N4" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">INDIRECT(Saldo[[#Headers],[Grudzień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(Saldo[[#Headers],[Styczeń]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>65</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(Saldo[[#Headers],[Luty]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>100</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">INDIRECT(Saldo[[#Headers],[Marzec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>167.5</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">INDIRECT(Saldo[[#Headers],[Kwiecień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>268.5</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">INDIRECT(Saldo[[#Headers],[Maj]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>218.5</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">INDIRECT(Saldo[[#Headers],[Czerwiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>468.5</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">INDIRECT(Saldo[[#Headers],[Lipiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>368.5</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">INDIRECT(Saldo[[#Headers],[Sierpień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>568.5</v>
+      </c>
+      <c r="K5" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">INDIRECT(Saldo[[#Headers],[Wrzesień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="L5" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">INDIRECT(Saldo[[#Headers],[Październik]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="M5" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">INDIRECT(Saldo[[#Headers],[Listopad]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="N5" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">INDIRECT(Saldo[[#Headers],[Grudzień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(Saldo[[#Headers],[Styczeń]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>266</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(Saldo[[#Headers],[Luty]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>281</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">INDIRECT(Saldo[[#Headers],[Marzec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>286</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">INDIRECT(Saldo[[#Headers],[Kwiecień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">INDIRECT(Saldo[[#Headers],[Maj]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">INDIRECT(Saldo[[#Headers],[Czerwiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">INDIRECT(Saldo[[#Headers],[Lipiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1386</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">INDIRECT(Saldo[[#Headers],[Sierpień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">INDIRECT(Saldo[[#Headers],[Wrzesień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">INDIRECT(Saldo[[#Headers],[Październik]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">INDIRECT(Saldo[[#Headers],[Listopad]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="N6" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">INDIRECT(Saldo[[#Headers],[Grudzień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(Saldo[[#Headers],[Styczeń]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>150</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(Saldo[[#Headers],[Luty]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>250</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">INDIRECT(Saldo[[#Headers],[Marzec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">INDIRECT(Saldo[[#Headers],[Kwiecień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">INDIRECT(Saldo[[#Headers],[Maj]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">INDIRECT(Saldo[[#Headers],[Czerwiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">INDIRECT(Saldo[[#Headers],[Lipiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">INDIRECT(Saldo[[#Headers],[Sierpień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">INDIRECT(Saldo[[#Headers],[Wrzesień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">INDIRECT(Saldo[[#Headers],[Październik]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">INDIRECT(Saldo[[#Headers],[Listopad]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="N7" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">INDIRECT(Saldo[[#Headers],[Grudzień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(Saldo[[#Headers],[Styczeń]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>180</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(Saldo[[#Headers],[Luty]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>680</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">INDIRECT(Saldo[[#Headers],[Marzec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">INDIRECT(Saldo[[#Headers],[Kwiecień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">INDIRECT(Saldo[[#Headers],[Maj]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>590.5</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">INDIRECT(Saldo[[#Headers],[Czerwiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">INDIRECT(Saldo[[#Headers],[Lipiec]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">INDIRECT(Saldo[[#Headers],[Sierpień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">INDIRECT(Saldo[[#Headers],[Wrzesień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">INDIRECT(Saldo[[#Headers],[Październik]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">INDIRECT(Saldo[[#Headers],[Listopad]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>793</v>
+      </c>
+      <c r="N8" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">INDIRECT(Saldo[[#Headers],[Grudzień]]&amp; "[@[Saldo końcowe]]")</f>
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUBTOTAL(109,Saldo[Styczeń])</f>
+        <v>3786</v>
+      </c>
+      <c r="D9">
+        <f ca="1">SUBTOTAL(109,Saldo[Luty])</f>
+        <v>6250.5</v>
+      </c>
+      <c r="E9">
+        <f ca="1">SUBTOTAL(109,Saldo[Marzec])</f>
+        <v>7676.6100000000006</v>
+      </c>
+      <c r="F9">
+        <f ca="1">SUBTOTAL(109,Saldo[Kwiecień])</f>
+        <v>8403.4500000000007</v>
+      </c>
+      <c r="G9">
+        <f ca="1">SUBTOTAL(109,Saldo[Maj])</f>
+        <v>9693.4500000000007</v>
+      </c>
+      <c r="H9">
+        <f ca="1">SUBTOTAL(109,Saldo[Czerwiec])</f>
+        <v>10863.45</v>
+      </c>
+      <c r="I9">
+        <f ca="1">SUBTOTAL(109,Saldo[Lipiec])</f>
+        <v>13778.45</v>
+      </c>
+      <c r="J9">
+        <f ca="1">SUBTOTAL(109,Saldo[Sierpień])</f>
+        <v>14168.95</v>
+      </c>
+      <c r="K9">
+        <f ca="1">SUBTOTAL(109,Saldo[Wrzesień])</f>
+        <v>15920.45</v>
+      </c>
+      <c r="L9">
+        <f ca="1">SUBTOTAL(109,Saldo[Październik])</f>
+        <v>17590.45</v>
+      </c>
+      <c r="M9">
+        <f ca="1">SUBTOTAL(109,Saldo[Listopad])</f>
+        <v>18990.45</v>
+      </c>
+      <c r="N9">
+        <f ca="1">SUBTOTAL(109,Saldo[Grudzień])</f>
+        <v>22910.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C839398-3188-4900-9414-862F2E8858A6}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -9578,12 +10670,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9594,7 +10686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC0F785-5AB6-41C9-818E-1F7C91C5EFA9}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -10040,12 +11132,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10056,12 +11148,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E04C2-035A-4328-9657-58AB8BD3657C}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -10502,12 +11594,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10518,12 +11610,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC43500B-4849-4C10-93B0-C9165CDC2EB4}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -10964,12 +12056,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10980,7 +12072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAB0F68-DF63-4342-A47C-DA6EB0C4E452}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -11426,12 +12518,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11443,7 +12535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62986C61-F6A1-42C3-B0D5-19B27E7132A4}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -11889,475 +12981,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E45C0D-6725-4B95-B145-2DA48FFBDE83}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
-        <v>-629.5</v>
-      </c>
-      <c r="D2">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>1165</v>
-      </c>
-      <c r="E2">
-        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
-        <v>535.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
-        <v>8872.44</v>
-      </c>
-      <c r="D3">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>1010</v>
-      </c>
-      <c r="E3">
-        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
-        <v>9882.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
-        <v>1200</v>
-      </c>
-      <c r="D4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-180</v>
-      </c>
-      <c r="E4">
-        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
-        <v>468.5</v>
-      </c>
-      <c r="D5">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-100</v>
-      </c>
-      <c r="E5">
-        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
-        <v>368.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
-        <v>336</v>
-      </c>
-      <c r="D6">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>1050</v>
-      </c>
-      <c r="E6">
-        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
-        <v>225.51</v>
-      </c>
-      <c r="D7">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>-30</v>
-      </c>
-      <c r="E7">
-        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
-        <v>195.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2024,$B$11-1,1),"mmmm") &amp; "[@[Saldo końcowe]]")</f>
-        <v>390.5</v>
-      </c>
-      <c r="D8">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Bank],Lipiec[[#This Row],[Bank]],Operacje[Produkt],Lipiec[[#This Row],[Produkt]],Operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f ca="1">Lipiec[[#This Row],[Saldo poczatkowe ]]+Lipiec[[#This Row],[operacje ]]</f>
-        <v>390.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <f ca="1">SUBTOTAL(109,Lipiec[[Saldo poczatkowe ]])</f>
-        <v>10863.45</v>
-      </c>
-      <c r="D9">
-        <f>SUBTOTAL(109,Lipiec[[operacje ]])</f>
-        <v>2915</v>
-      </c>
-      <c r="E9">
-        <f ca="1">SUBTOTAL(109,Lipiec[saldo końcowe])</f>
-        <v>13778.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="str">
-        <f>TEXT(DATE(2024,$B$11,1),"mmmm")</f>
-        <v>lipiec</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A14,Operacje[Miesiąc],$B$11)</f>
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A15,Operacje[Miesiąc],$B$11)</f>
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A16,Operacje[Miesiąc],$B$11)</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A17,Operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A18,Operacje[Miesiąc],$B$11)</f>
-        <v>-700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A19,Operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A20,Operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A21,Operacje[Miesiąc],$B$11)</f>
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A22,Operacje[Miesiąc],$B$11)</f>
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4">
-        <f>SUBTOTAL(9,C14:C22)</f>
-        <v>-3005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A24,Operacje[Miesiąc],$B$11)</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A25,Operacje[Miesiąc],$B$11)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A26,Operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A27,Operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A28,Operacje[Miesiąc],$B$11)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A29,Operacje[Miesiąc],$B$11)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="4">
-        <f>SUBTOTAL(9,C24:C29)</f>
-        <v>5920</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="4">
-        <f>SUMIFS(Operacje[Kwota],Operacje[Kategoria],$A31,Operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
-        <f>SUBTOTAL(9,C31:C31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33">
-        <f>SUBTOTAL(9,C14:C31)</f>
-        <v>2915</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13:C33">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
